--- a/5539_説明.xlsx
+++ b/5539_説明.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H16304000\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
   <si>
     <t>ThreadServlet</t>
     <phoneticPr fontId="1"/>
@@ -444,9 +444,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スレッドの追加×</t>
+    <t>スレッドの投稿</t>
     <rPh sb="5" eb="7">
-      <t>ツイカ</t>
+      <t>トウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -897,10 +897,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/5539_説明.xlsx
+++ b/5539_説明.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H16304000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>ThreadServlet</t>
     <phoneticPr fontId="1"/>
@@ -440,13 +440,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>レスの追加×</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スレッドの投稿</t>
+    <t>レスの内容を追加するメソッドに渡す</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドの内容を追加するメソッドを渡す</t>
     <rPh sb="5" eb="7">
-      <t>トウコウ</t>
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -900,7 +915,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
